--- a/src/main/java/ml6002b2022/week2_demo/Attribute Quality Calculator.xlsx
+++ b/src/main/java/ml6002b2022/week2_demo/Attribute Quality Calculator.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2145B6BE-0FCB-4562-B158-BAEE8D72F057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="516" documentId="13_ncr:1_{2145B6BE-0FCB-4562-B158-BAEE8D72F057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD432665-F5FA-4A22-B6CC-BD32811ADEDB}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="510" windowWidth="20745" windowHeight="18225" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-15990" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entropy" sheetId="1" r:id="rId1"/>
     <sheet name="Information Gain" sheetId="2" r:id="rId2"/>
-    <sheet name="Chi Squared" sheetId="4" r:id="rId3"/>
-    <sheet name="Gini Index" sheetId="5" r:id="rId4"/>
-    <sheet name="Gini vs IG" sheetId="6" r:id="rId5"/>
-    <sheet name="Information Gain Ratio" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
+    <sheet name="Chi Squared" sheetId="4" r:id="rId5"/>
+    <sheet name="Gini Index" sheetId="5" r:id="rId6"/>
+    <sheet name="Gini vs IG" sheetId="6" r:id="rId7"/>
+    <sheet name="Information Gain Ratio" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="103">
   <si>
     <t>Base Node</t>
   </si>
@@ -175,6 +199,174 @@
   </si>
   <si>
     <t>GAIN FROM SAKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peaty </t>
+  </si>
+  <si>
+    <t>Woody</t>
+  </si>
+  <si>
+    <t>Sweet</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Islay</t>
+  </si>
+  <si>
+    <t>Speyside</t>
+  </si>
+  <si>
+    <t>Num classes</t>
+  </si>
+  <si>
+    <t>Num cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islay </t>
+  </si>
+  <si>
+    <t>Peaty</t>
+  </si>
+  <si>
+    <t>Yes(1)</t>
+  </si>
+  <si>
+    <t>No(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cases </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speyside </t>
+  </si>
+  <si>
+    <t>Choose to split on peaty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input variables </t>
+  </si>
+  <si>
+    <t>Input variables</t>
+  </si>
+  <si>
+    <t>Gain from Peaty =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain from Woody = </t>
+  </si>
+  <si>
+    <t>Gain from Sweet =</t>
+  </si>
+  <si>
+    <t>Total cases</t>
+  </si>
+  <si>
+    <t>Split on Sweet</t>
+  </si>
+  <si>
+    <t>Yes=1</t>
+  </si>
+  <si>
+    <t>No=0</t>
+  </si>
+  <si>
+    <t>Global Prob</t>
+  </si>
+  <si>
+    <t>Root Node</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Observed values and (Expected values)</t>
+  </si>
+  <si>
+    <t>1(6*0.5=3)</t>
+  </si>
+  <si>
+    <t>4(4*0.5=2)</t>
+  </si>
+  <si>
+    <t>5(6*0.5=3)</t>
+  </si>
+  <si>
+    <t>0(4*0.5=2)</t>
+  </si>
+  <si>
+    <t>3(5*0.5=2.5)</t>
+  </si>
+  <si>
+    <t>2(5*0.5=2.5)</t>
+  </si>
+  <si>
+    <t>3(3*0.5=1.5)</t>
+  </si>
+  <si>
+    <t>2(7*0.5=3.5)</t>
+  </si>
+  <si>
+    <t>0(3*0.5=1.5)</t>
+  </si>
+  <si>
+    <t>5(7*0.5=3.5)</t>
+  </si>
+  <si>
+    <t>(x^2) = 6.67</t>
+  </si>
+  <si>
+    <t>(x^2) = 0.4</t>
+  </si>
+  <si>
+    <t>(x^2) = 4.29</t>
+  </si>
+  <si>
+    <t>Split on Peaty</t>
+  </si>
+  <si>
+    <t>Input Variables</t>
+  </si>
+  <si>
+    <t>0(2*(1/6)=2/6)</t>
+  </si>
+  <si>
+    <t>1(4*1/6=4/6)</t>
+  </si>
+  <si>
+    <t>2(2*5/6=10/6)</t>
+  </si>
+  <si>
+    <t>3(4*5/6=20/6)</t>
+  </si>
+  <si>
+    <t>(x^2) = 0.6</t>
+  </si>
+  <si>
+    <t>1(1*(1/6)=1/6)</t>
+  </si>
+  <si>
+    <t>0(1*5/6=5/6)</t>
+  </si>
+  <si>
+    <t>5(5*5/6=25/6)</t>
+  </si>
+  <si>
+    <t>0(5*1/6=5/6)</t>
+  </si>
+  <si>
+    <t>(x^2) = 9.33</t>
+  </si>
+  <si>
+    <t>Split on sweet</t>
+  </si>
+  <si>
+    <t>all nodes pure</t>
   </si>
 </sst>
 </file>
@@ -202,7 +394,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -210,15 +402,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1802,12 +2090,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1824,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1844,7 +2132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>0</v>
       </c>
@@ -1864,7 +2152,7 @@
         <v>0.94028595867063092</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>1</v>
       </c>
@@ -1880,7 +2168,7 @@
         <v>-0.53050958113222912</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>2</v>
       </c>
@@ -1893,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>3</v>
       </c>
@@ -1919,23 +2207,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1945,7 +2234,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1955,7 +2244,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -1973,7 +2262,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -1990,7 +2279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -2017,7 +2306,7 @@
         <v>1.4387586809150084</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -2040,7 +2329,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -2063,17 +2352,17 @@
         <v>-0.47437306193753581</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2082,7 +2371,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -2100,7 +2389,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2121,7 +2410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>36</v>
       </c>
@@ -2152,7 +2441,7 @@
         <v>0.48257299999999992</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>37</v>
       </c>
@@ -2175,7 +2464,7 @@
         <v>-0.51638712058788683</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -2198,11 +2487,11 @@
         <v>-0.46134566974720242</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>11</v>
       </c>
@@ -2211,7 +2500,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>12</v>
       </c>
@@ -2229,7 +2518,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2250,7 +2539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>36</v>
       </c>
@@ -2281,7 +2570,7 @@
         <v>0.94722284385520172</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>37</v>
       </c>
@@ -2304,7 +2593,7 @@
         <v>-0.48818705017383146</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>38</v>
       </c>
@@ -2327,7 +2616,7 @@
         <v>-0.48089181327572439</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -2336,13 +2625,13 @@
         <v>8.9628370598067164E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>11</v>
       </c>
@@ -2351,7 +2640,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>12</v>
       </c>
@@ -2369,7 +2658,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -2390,7 +2679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>36</v>
       </c>
@@ -2417,7 +2706,7 @@
         <v>1.4488156357251847</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>37</v>
       </c>
@@ -2440,7 +2729,7 @@
         <v>-0.40105070315108637</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>38</v>
       </c>
@@ -2467,11 +2756,11 @@
         <v>1.3123712892955246</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E35" s="1"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -2480,7 +2769,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>12</v>
       </c>
@@ -2498,7 +2787,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2519,7 +2808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>36</v>
       </c>
@@ -2546,7 +2835,7 @@
         <v>1.2389012566026307</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -2569,7 +2858,7 @@
         <v>-0.52321222096648989</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -2592,11 +2881,11 @@
         <v>-0.43103982654836442</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2607,17 +2896,17 @@
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E44" s="1"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>11</v>
       </c>
@@ -2626,7 +2915,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>12</v>
       </c>
@@ -2644,7 +2933,7 @@
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -2665,7 +2954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>36</v>
       </c>
@@ -2692,7 +2981,7 @@
         <v>1.5716473988611475</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>37</v>
       </c>
@@ -2715,7 +3004,7 @@
         <v>-0.52388246628704915</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>38</v>
       </c>
@@ -2742,11 +3031,11 @@
         <v>1.2853184345790023</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E52" s="1"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2755,7 +3044,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>12</v>
       </c>
@@ -2773,7 +3062,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -2794,7 +3083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>36</v>
       </c>
@@ -2821,7 +3110,7 @@
         <v>1.1311412999655395</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>37</v>
       </c>
@@ -2844,7 +3133,7 @@
         <v>-0.4154522643293988</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>38</v>
       </c>
@@ -2867,11 +3156,11 @@
         <v>-0.43103982654836442</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E59" s="1"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>46</v>
       </c>
@@ -2889,671 +3178,1694 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7438BE66-E7E7-4E8D-8A18-84FF28C3114F}">
+  <dimension ref="A1:R99"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="8">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="8">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="8">
+        <f>C17/$C$17</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <f>SUM(D20:D21)</f>
+        <v>10</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <f>D18</f>
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <f>D19</f>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>5</v>
+      </c>
+      <c r="E20" s="8">
+        <f>D20/$C$17</f>
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="8" cm="1">
+        <f t="array" ref="G20:G21">IF(E20:E21&lt;&gt;0,E20:E21*LOG(E20:E21,2),0)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="H20" s="9">
+        <f>-SUM(_xlfn.ANCHORARRAY(G20))</f>
+        <v>1</v>
+      </c>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11">
+        <v>5</v>
+      </c>
+      <c r="E21" s="11">
+        <f>D21/$C$17</f>
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11">
+        <v>-0.5</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="8">
+        <v>6</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="8">
+        <f>C24/$C$17</f>
+        <v>0.6</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="9"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
+        <f>D27/$C$24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" cm="1">
+        <f t="array" ref="G27:G28">IF(E27:E28&lt;&gt;0,E27:E28*LOG(E27:E28,2),0)</f>
+        <v>-0.43082708345352599</v>
+      </c>
+      <c r="H27" s="8">
+        <f>-SUM(_xlfn.ANCHORARRAY(G27))</f>
+        <v>0.65002242164835411</v>
+      </c>
+      <c r="I27" s="9">
+        <f>C25*H27</f>
+        <v>0.39001345298901247</v>
+      </c>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8">
+        <v>5</v>
+      </c>
+      <c r="E28" s="8">
+        <f>D28/$C$24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8">
+        <v>-0.21919533819482817</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="9"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="9"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="8">
+        <v>4</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="8">
+        <f>C30/$C$17</f>
+        <v>0.4</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <v>4</v>
+      </c>
+      <c r="E33" s="8">
+        <f>D33/$C$30</f>
+        <v>1</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8" cm="1">
+        <f t="array" ref="G33:G34">IF(E33:E34&lt;&gt;0,E33:E34*LOG(E33:E34,2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
+        <f>-SUM(_xlfn.ANCHORARRAY(G33))</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <f>C31*H33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <f>D34/$C$30</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="12">
+        <f>I27+I33</f>
+        <v>0.39001345298901247</v>
+      </c>
+      <c r="J34" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34">
+        <f>H20-I34</f>
+        <v>0.60998654701098753</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="8">
+        <v>5</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="8">
+        <f>C37/$C$17</f>
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0</v>
+      </c>
+      <c r="D40" s="8">
+        <v>3</v>
+      </c>
+      <c r="E40" s="8">
+        <f>D40/$C$37</f>
+        <v>0.6</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8" cm="1">
+        <f t="array" ref="G40:G41">IF(E40:E41&lt;&gt;0,E40:E41*LOG(E40:E41,2),0)</f>
+        <v>-0.44217935649972373</v>
+      </c>
+      <c r="H40" s="8">
+        <f>-SUM(_xlfn.ANCHORARRAY(G40))</f>
+        <v>0.97095059445466858</v>
+      </c>
+      <c r="I40" s="9">
+        <f>C38*H40</f>
+        <v>0.48547529722733429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8">
         <v>2</v>
       </c>
-      <c r="I3">
-        <f>D20</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>D21</f>
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <f>SUM(G3:J3)</f>
+      <c r="E41" s="8">
+        <f>D41/$C$37</f>
+        <v>0.4</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8">
+        <v>-0.52877123795494485</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="8">
+        <v>5</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="8">
+        <f>C43/$C$17</f>
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <f>D27</f>
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <f>D28</f>
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <f>D29</f>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f>D30</f>
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K6" si="0">SUM(G4:J4)</f>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0</v>
+      </c>
+      <c r="D46" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <f>COUNTA(C9:C12)-COUNTIF(D9:D12,"=0")</f>
+      <c r="E46" s="8">
+        <f>D46/$C$43</f>
+        <v>0.4</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8" cm="1">
+        <f t="array" ref="G46:G47">IF(E46:E47&lt;&gt;0,E46:E47*LOG(E46:E47,2),0)</f>
+        <v>-0.52877123795494485</v>
+      </c>
+      <c r="H46" s="8">
+        <f>-SUM(_xlfn.ANCHORARRAY(G46))</f>
+        <v>0.97095059445466858</v>
+      </c>
+      <c r="I46" s="9">
+        <f>C44*H46</f>
+        <v>0.48547529722733429</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="11">
+        <v>1</v>
+      </c>
+      <c r="D47" s="11">
+        <v>3</v>
+      </c>
+      <c r="E47" s="11">
+        <f>D47/$C$43</f>
+        <v>0.6</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11">
+        <v>-0.44217935649972373</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="12">
+        <f>I40+I46</f>
+        <v>0.97095059445466858</v>
+      </c>
+      <c r="J47" t="s">
+        <v>65</v>
+      </c>
+      <c r="K47">
+        <f>H20-I47</f>
+        <v>2.9049405545331419E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="8">
+        <v>3</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="8">
+        <f>C50/$C$17</f>
+        <v>0.3</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0</v>
+      </c>
+      <c r="D53" s="8">
+        <v>3</v>
+      </c>
+      <c r="E53" s="8">
+        <f>D53/$C$50</f>
+        <v>1</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8" cm="1">
+        <f t="array" ref="G53:G54">IF(E53:E54&lt;&gt;0,E53:E54*LOG(E53:E54,2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="8">
+        <f>-SUM(_xlfn.ANCHORARRAY(G53))</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
+        <f>C51*H53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="8">
+        <v>1</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0</v>
+      </c>
+      <c r="E54" s="8">
+        <f>D54/$C$50</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8">
+        <v>0</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="9"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="7"/>
+      <c r="B56" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="8">
+        <v>7</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="7"/>
+      <c r="B57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="8">
+        <f>C56/$C$17</f>
+        <v>0.7</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="9"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" s="9"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+      <c r="B59" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0</v>
+      </c>
+      <c r="D59" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5">
-        <f>D36</f>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f>D37</f>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f>D38</f>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f>D39</f>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <f>SUM(D9:D15)</f>
+      <c r="E59" s="8">
+        <f>D59/$C$56</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8" cm="1">
+        <f t="array" ref="G59:G60">IF(E59:E60&lt;&gt;0,E59:E60*LOG(E59:E60,2),0)</f>
+        <v>-0.51638712058788683</v>
+      </c>
+      <c r="H59" s="8">
+        <f>-SUM(_xlfn.ANCHORARRAY(G59))</f>
+        <v>0.863120568566631</v>
+      </c>
+      <c r="I59" s="9">
+        <f>C57*H59</f>
+        <v>0.6041843979966417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="10"/>
+      <c r="B60" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="11">
+        <v>1</v>
+      </c>
+      <c r="D60" s="11">
         <v>5</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6">
-        <f>D9</f>
+      <c r="E60" s="11">
+        <f>D60/$C$56</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11">
+        <v>-0.34673344797874411</v>
+      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="12">
+        <f>I53+I59</f>
+        <v>0.6041843979966417</v>
+      </c>
+      <c r="J60" t="s">
+        <v>66</v>
+      </c>
+      <c r="K60">
+        <f>H20-I60</f>
+        <v>0.3958156020033583</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="7">
+        <v>0</v>
+      </c>
+      <c r="C66" s="8">
+        <v>1</v>
+      </c>
+      <c r="D66" s="8">
+        <v>0</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="7">
+        <v>0</v>
+      </c>
+      <c r="C67" s="8">
+        <v>1</v>
+      </c>
+      <c r="D67" s="8">
+        <v>1</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="7">
+        <v>0</v>
+      </c>
+      <c r="C68" s="8">
+        <v>1</v>
+      </c>
+      <c r="D68" s="8">
+        <v>1</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="7">
+        <v>0</v>
+      </c>
+      <c r="C69" s="8">
+        <v>1</v>
+      </c>
+      <c r="D69" s="8">
+        <v>1</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="7">
+        <v>0</v>
+      </c>
+      <c r="C70" s="8">
+        <v>0</v>
+      </c>
+      <c r="D70" s="8">
+        <v>1</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="10">
+        <v>0</v>
+      </c>
+      <c r="C71" s="11">
+        <v>0</v>
+      </c>
+      <c r="D71" s="11">
+        <v>1</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="5">
+        <v>6</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="7"/>
+      <c r="B74" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="14">
         <v>2</v>
       </c>
-      <c r="H6">
-        <f>D10</f>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="9"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+      <c r="B75" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="8">
+        <f>C74/$C$73</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="9"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I6">
-        <f>D11</f>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f>D12</f>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="H76" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76" s="9"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="8">
+        <v>0</v>
+      </c>
+      <c r="D77" s="8">
+        <v>0</v>
+      </c>
+      <c r="E77" s="8">
+        <f>D77/$C$37</f>
+        <v>0</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8" cm="1">
+        <f t="array" ref="G77:G78">IF(E77:E78&lt;&gt;0,E77:E78*LOG(E77:E78,2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="8">
+        <f>-SUM(_xlfn.ANCHORARRAY(G77))</f>
+        <v>0.52877123795494485</v>
+      </c>
+      <c r="I77" s="9">
+        <f>C75*H77</f>
+        <v>0.17625707931831494</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="7"/>
+      <c r="B78" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="8">
+        <v>1</v>
+      </c>
+      <c r="D78" s="8">
+        <v>2</v>
+      </c>
+      <c r="E78" s="8">
+        <f>D78/$C$37</f>
+        <v>0.4</v>
+      </c>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8">
+        <v>-0.52877123795494485</v>
+      </c>
+      <c r="H78" s="8"/>
+      <c r="I78" s="9"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="9"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="8">
+        <v>4</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="9"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+      <c r="B81" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
-        <f>C6/$C$6</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <f>SUM(E9:E15)</f>
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <f>G6/$K$6</f>
-        <v>0.4</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ref="H7:K7" si="1">H6/$K$6</f>
+      <c r="C81" s="8">
+        <f>C80/$C$73</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="9"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" s="8">
+        <v>0</v>
+      </c>
+      <c r="D83" s="8">
+        <v>1</v>
+      </c>
+      <c r="E83" s="8">
+        <f>D83/$C$43</f>
+        <v>0.2</v>
+      </c>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8" cm="1">
+        <f t="array" ref="G83:G84">IF(E83:E84&lt;&gt;0,E83:E84*LOG(E83:E84,2),0)</f>
+        <v>-0.46438561897747244</v>
+      </c>
+      <c r="H83" s="8">
+        <f>-SUM(_xlfn.ANCHORARRAY(G83))</f>
+        <v>0.90656497547719617</v>
+      </c>
+      <c r="I83" s="9">
+        <f>C81*H83</f>
+        <v>0.6043766503181307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="10"/>
+      <c r="B84" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="11">
+        <v>1</v>
+      </c>
+      <c r="D84" s="11">
+        <v>3</v>
+      </c>
+      <c r="E84" s="11">
+        <f>D84/$C$43</f>
         <v>0.6</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F84" s="11"/>
+      <c r="G84" s="11">
+        <v>-0.44217935649972373</v>
+      </c>
+      <c r="H84" s="11"/>
+      <c r="I84" s="12">
+        <f>I77+I83</f>
+        <v>0.78063372963644562</v>
+      </c>
+      <c r="J84" t="s">
+        <v>65</v>
+      </c>
+      <c r="K84">
+        <f>I27-I84</f>
+        <v>-0.39062027664743315</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="5">
+        <v>6</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="7"/>
+      <c r="B87" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" s="8">
+        <v>1</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="9"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="7"/>
+      <c r="B88" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="8">
+        <f>C87/$C$86</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="9"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E89" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <f>D9/$C$6</f>
-        <v>0.4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <f>G$7*$K3</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ref="H9:J9" si="2">H$7*$K3</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="F89" s="8"/>
+      <c r="G89" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I89" s="9"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="7"/>
+      <c r="B90" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="8">
+        <v>0</v>
+      </c>
+      <c r="D90" s="8">
+        <v>1</v>
+      </c>
+      <c r="E90" s="8">
+        <f>D90/$C$87</f>
+        <v>1</v>
+      </c>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8" cm="1">
+        <f t="array" ref="G90:G91">IF(E90:E91&lt;&gt;0,E90:E91*LOG(E90:E91,2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="8">
+        <f>-SUM(_xlfn.ANCHORARRAY(G90))</f>
+        <v>0</v>
+      </c>
+      <c r="I90" s="9">
+        <f>C88*H90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="7"/>
+      <c r="B91" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" s="8">
+        <v>1</v>
+      </c>
+      <c r="D91" s="8">
+        <v>0</v>
+      </c>
+      <c r="E91" s="8">
+        <f>D91/$C$50</f>
+        <v>0</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8">
+        <v>0</v>
+      </c>
+      <c r="H91" s="8"/>
+      <c r="I91" s="9"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="7"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="9"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="7"/>
+      <c r="B93" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" s="8">
+        <v>5</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="9"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="7"/>
+      <c r="B94" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="8">
+        <f>C93/$C$86</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="9"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E95" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1">
-        <f>D10/$C$6</f>
-        <v>0.6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ref="G10:J10" si="3">G$7*$K4</f>
-        <v>0.8</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <f>D11/$C$6</f>
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ref="G11:J11" si="4">G$7*$K5</f>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <f>D12/$C$6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13">
-        <f>IF(G9&gt;0,(G3-G9)*(G3-G9)/G9,0)</f>
-        <v>3.3333333333333388E-2</v>
-      </c>
-      <c r="H13">
-        <f>IF(H9&gt;0,(H3-H9)*(H3-H9)/H9,0)</f>
-        <v>2.2222222222222265E-2</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ref="I13:J13" si="5">IF(I9&gt;0,(I3-I9)*(I3-I9)/I9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <f>COUNTA(C18:C21)-COUNTIF(D18:D21,"=0")</f>
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <f>SUM(G13:J15)</f>
-        <v>0.13888888888888895</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ref="G14:J14" si="6">IF(G10&gt;0,(G4-G10)*(G4-G10)/G10,0)</f>
-        <v>4.9999999999999975E-2</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="6"/>
-        <v>3.3333333333333319E-2</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <f>SUM(D18:D21)</f>
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ref="G15:J15" si="7">IF(G11&gt;0,(G5-G11)*(G5-G11)/G11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <f>C15/$C$6</f>
-        <v>0.6</v>
-      </c>
-      <c r="D16">
-        <f>SUM(D18:D21)</f>
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <f>SUM(E18:E21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <f>D18/$D$16</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H18">
-        <f>8*2/3</f>
-        <v>5.333333333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" ref="E19:E21" si="8">D19/$D$16</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <f>COUNTA(C27:C30)-COUNTIF(D27:D30,"=0")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24">
-        <f>SUM(D27:D30)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <f>C24/$C$6</f>
-        <v>0.4</v>
-      </c>
-      <c r="D25">
-        <f>SUM(D27:D30)</f>
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <f>SUM(E27:E30)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <f>D27/$D$25</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <f>D28/$D$25</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <f>D29/$D$16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <f>D30/$D$16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <f>COUNTA(C36:C39)-COUNTIF(D36:D39,"=0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33">
-        <f>SUM(D36:D39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34">
-        <f>C33/$C$6</f>
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <f>SUM(D36:D41)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <f>SUM(E36:E41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
-        <f>IF(D$34&gt;0,D36/$D$34,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" ref="E37:E39" si="9">IF(D$34&gt;0,D37/$D$34,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I95" s="9"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="7"/>
+      <c r="B96" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96" s="8">
+        <v>0</v>
+      </c>
+      <c r="D96" s="8">
+        <v>0</v>
+      </c>
+      <c r="E96" s="8">
+        <f>D96/$C$56</f>
+        <v>0</v>
+      </c>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8" cm="1">
+        <f t="array" ref="G96:G97">IF(E96:E97&lt;&gt;0,E96:E97*LOG(E96:E97,2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="8">
+        <f>-SUM(_xlfn.ANCHORARRAY(G96))</f>
+        <v>0</v>
+      </c>
+      <c r="I96" s="9">
+        <f>C94*H96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="10"/>
+      <c r="B97" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C97" s="11">
+        <v>1</v>
+      </c>
+      <c r="D97" s="11">
+        <v>5</v>
+      </c>
+      <c r="E97" s="11">
+        <f>D97/$C$93</f>
+        <v>1</v>
+      </c>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11">
+        <v>0</v>
+      </c>
+      <c r="H97" s="11"/>
+      <c r="I97" s="12">
+        <f>I90+I96</f>
+        <v>0</v>
+      </c>
+      <c r="J97" t="s">
+        <v>66</v>
+      </c>
+      <c r="K97">
+        <f>I27-I97</f>
+        <v>0.39001345298901247</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3562,6 +4874,1456 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D399D3D7-0A9F-43CC-B946-CE530393222F}">
+  <dimension ref="A1:G77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85:C86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="8">
+        <v>5</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5</v>
+      </c>
+      <c r="D16" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="8">
+        <v>5</v>
+      </c>
+      <c r="C25" s="8">
+        <v>5</v>
+      </c>
+      <c r="D25" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="8">
+        <v>5</v>
+      </c>
+      <c r="C34" s="8">
+        <v>5</v>
+      </c>
+      <c r="D34" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="8">
+        <v>5</v>
+      </c>
+      <c r="C43" s="8">
+        <v>5</v>
+      </c>
+      <c r="D43" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="7">
+        <v>0</v>
+      </c>
+      <c r="C50" s="8">
+        <v>1</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="7">
+        <v>0</v>
+      </c>
+      <c r="C51" s="8">
+        <v>1</v>
+      </c>
+      <c r="D51" s="8">
+        <v>1</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="7">
+        <v>0</v>
+      </c>
+      <c r="C52" s="8">
+        <v>1</v>
+      </c>
+      <c r="D52" s="8">
+        <v>1</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="7">
+        <v>0</v>
+      </c>
+      <c r="C53" s="8">
+        <v>1</v>
+      </c>
+      <c r="D53" s="8">
+        <v>1</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="7">
+        <v>0</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0</v>
+      </c>
+      <c r="D54" s="8">
+        <v>1</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="10">
+        <v>0</v>
+      </c>
+      <c r="C55" s="11">
+        <v>0</v>
+      </c>
+      <c r="D55" s="11">
+        <v>1</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="8">
+        <v>1</v>
+      </c>
+      <c r="C62" s="8">
+        <v>5</v>
+      </c>
+      <c r="D62" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="17">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C64" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="8">
+        <v>1</v>
+      </c>
+      <c r="C71" s="8">
+        <v>5</v>
+      </c>
+      <c r="D71" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="17">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C73" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D73" s="12"/>
+      <c r="E73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B67:C67"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView zoomScale="97" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <f>D18</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>D19</f>
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f>D20</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>D21</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>SUM(G3:J3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <f>D27</f>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f>D28</f>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f>D29</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>D30</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K6" si="0">SUM(G4:J4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <f>COUNTA(C9:C12)-COUNTIF(D9:D12,"=0")</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <f>D36</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>D37</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>D38</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>D39</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <f>SUM(D9:D15)</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <f>D9</f>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f>D10</f>
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <f>C6/$C$6</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <f>SUM(E9:E15)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <f>G6/$K$6</f>
+        <v>0.4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:K7" si="1">H6/$K$6</f>
+        <v>0.6</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <f>D9/$C$6</f>
+        <v>0.4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <f>G$7*$K3</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:J9" si="2">H$7*$K3</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <f>D10/$C$6</f>
+        <v>0.6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:J10" si="3">G$7*$K4</f>
+        <v>0.8</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <f>D11/$C$6</f>
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:J11" si="4">G$7*$K5</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <f>D12/$C$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <f>IF(G9&gt;0,(G3-G9)*(G3-G9)/G9,0)</f>
+        <v>3.3333333333333388E-2</v>
+      </c>
+      <c r="H13">
+        <f>IF(H9&gt;0,(H3-H9)*(H3-H9)/H9,0)</f>
+        <v>2.2222222222222265E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:J13" si="5">IF(I9&gt;0,(I3-I9)*(I3-I9)/I9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <f>COUNTA(C18:C21)-COUNTIF(D18:D21,"=0")</f>
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <f>SUM(G13:J15)</f>
+        <v>0.13888888888888895</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:J14" si="6">IF(G10&gt;0,(G4-G10)*(G4-G10)/G10,0)</f>
+        <v>4.9999999999999975E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>3.3333333333333319E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <f>SUM(D18:D21)</f>
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:J15" si="7">IF(G11&gt;0,(G5-G11)*(G5-G11)/G11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <f>C15/$C$6</f>
+        <v>0.6</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D18:D21)</f>
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <f>SUM(E18:E21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <f>D18/$D$16</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H18">
+        <f>8*2/3</f>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ref="E19:E21" si="8">D19/$D$16</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <f>COUNTA(C27:C30)-COUNTIF(D27:D30,"=0")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <f>SUM(D27:D30)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <f>C24/$C$6</f>
+        <v>0.4</v>
+      </c>
+      <c r="D25">
+        <f>SUM(D27:D30)</f>
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <f>SUM(E27:E30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <f>D27/$D$25</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <f>D28/$D$25</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <f>D29/$D$16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <f>D30/$D$16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <f>COUNTA(C36:C39)-COUNTIF(D36:D39,"=0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <f>SUM(D36:D39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <f>C33/$C$6</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f>SUM(D36:D41)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <f>SUM(E36:E41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <f>IF(D$34&gt;0,D36/$D$34,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" ref="E37:E39" si="9">IF(D$34&gt;0,D37/$D$34,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
@@ -3569,13 +6331,13 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>27</v>
       </c>
@@ -3605,7 +6367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3617,12 +6379,12 @@
         <v>0.1736111111111111</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -3632,7 +6394,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -3648,7 +6410,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -3661,7 +6423,7 @@
         <v>1.21875</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>1</v>
       </c>
@@ -3678,7 +6440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>0</v>
       </c>
@@ -3698,7 +6460,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>1</v>
       </c>
@@ -3714,7 +6476,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>2</v>
       </c>
@@ -3730,7 +6492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>3</v>
       </c>
@@ -3746,12 +6508,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -3760,7 +6522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -3776,7 +6538,7 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -3793,7 +6555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>1</v>
       </c>
@@ -3810,7 +6572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>0</v>
       </c>
@@ -3830,7 +6592,7 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>1</v>
       </c>
@@ -3846,7 +6608,7 @@
         <v>1.5625E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>2</v>
       </c>
@@ -3862,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>3</v>
       </c>
@@ -3878,12 +6640,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>10</v>
       </c>
@@ -3892,7 +6654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>11</v>
       </c>
@@ -3908,7 +6670,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>12</v>
       </c>
@@ -3925,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>1</v>
       </c>
@@ -3942,7 +6704,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>0</v>
       </c>
@@ -3962,7 +6724,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>1</v>
       </c>
@@ -3978,7 +6740,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>2</v>
       </c>
@@ -3994,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>3</v>
       </c>
@@ -4010,12 +6772,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>10</v>
       </c>
@@ -4024,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>11</v>
       </c>
@@ -4040,7 +6802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>12</v>
       </c>
@@ -4057,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>1</v>
       </c>
@@ -4074,7 +6836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>0</v>
       </c>
@@ -4094,7 +6856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>1</v>
       </c>
@@ -4110,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>2</v>
       </c>
@@ -4126,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>3</v>
       </c>
@@ -4148,7 +6910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -4156,9 +6918,9 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1">
         <f>B2*LOG(B2,2)</f>
         <v>-0.5</v>
@@ -4168,7 +6930,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4185,7 +6947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4204,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4">
         <f>B3+0.05</f>
         <v>0.05</v>
@@ -4222,7 +6984,7 @@
         <v>0.19000000000000017</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5">
         <f t="shared" ref="B5:B23" si="2">B4+0.05</f>
         <v>0.1</v>
@@ -4240,7 +7002,7 @@
         <v>0.36000000000000032</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <f t="shared" si="2"/>
         <v>0.15000000000000002</v>
@@ -4258,7 +7020,7 @@
         <v>0.51000000000000045</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7">
         <f t="shared" si="2"/>
         <v>0.2</v>
@@ -4276,7 +7038,7 @@
         <v>0.64000000000000057</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8">
         <f t="shared" si="2"/>
         <v>0.25</v>
@@ -4294,7 +7056,7 @@
         <v>0.75000000000000067</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9">
         <f t="shared" si="2"/>
         <v>0.3</v>
@@ -4312,7 +7074,7 @@
         <v>0.84000000000000075</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10">
         <f t="shared" si="2"/>
         <v>0.35</v>
@@ -4330,7 +7092,7 @@
         <v>0.91000000000000081</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11">
         <f t="shared" si="2"/>
         <v>0.39999999999999997</v>
@@ -4348,7 +7110,7 @@
         <v>0.96000000000000085</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12">
         <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
@@ -4366,7 +7128,7 @@
         <v>0.9900000000000011</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13">
         <f t="shared" si="2"/>
         <v>0.49999999999999994</v>
@@ -4384,7 +7146,7 @@
         <v>1.0000000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14">
         <f t="shared" si="2"/>
         <v>0.54999999999999993</v>
@@ -4402,7 +7164,7 @@
         <v>0.99000000000000088</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15">
         <f t="shared" si="2"/>
         <v>0.6</v>
@@ -4420,7 +7182,7 @@
         <v>0.96000000000000063</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16">
         <f t="shared" si="2"/>
         <v>0.65</v>
@@ -4438,7 +7200,7 @@
         <v>0.91000000000000036</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17">
         <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
@@ -4456,7 +7218,7 @@
         <v>0.8400000000000003</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18">
         <f t="shared" si="2"/>
         <v>0.75000000000000011</v>
@@ -4474,7 +7236,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19">
         <f t="shared" si="2"/>
         <v>0.80000000000000016</v>
@@ -4492,7 +7254,7 @@
         <v>0.63999999999999968</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20">
         <f t="shared" si="2"/>
         <v>0.8500000000000002</v>
@@ -4510,7 +7272,7 @@
         <v>0.50999999999999956</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21">
         <f t="shared" si="2"/>
         <v>0.90000000000000024</v>
@@ -4528,7 +7290,7 @@
         <v>0.35999999999999943</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22">
         <f t="shared" si="2"/>
         <v>0.95000000000000029</v>
@@ -4546,7 +7308,7 @@
         <v>0.18999999999999906</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23">
         <f t="shared" si="2"/>
         <v>1.0000000000000002</v>
@@ -4569,13 +7331,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
